--- a/mapping/OBI_RXNO.xlsx
+++ b/mapping/OBI_RXNO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>OBI_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>RXNO_DESC</t>
   </si>
   <si>
+    <t>RXNO_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000030</t>
   </si>
   <si>
@@ -64,6 +67,18 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000705</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_1110093</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_1110045</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_1000042</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_1110010</t>
+  </si>
+  <si>
     <t>{'iri': 'http://purl.obolibrary.org/obo/IAO_0000030'}</t>
   </si>
   <si>
@@ -100,10 +115,55 @@
     <t>{'label': 'Edman degradation', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000705'}</t>
   </si>
   <si>
+    <t>{'label': 'disposition', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_1110093'}</t>
+  </si>
+  <si>
+    <t>{'label': 'disposition', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_1110045'}</t>
+  </si>
+  <si>
+    <t>{'label': 'peptide', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_1000042'}</t>
+  </si>
+  <si>
+    <t>{'label': 'disposition', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_1110010'}</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/RXNO_0000071</t>
   </si>
   <si>
     <t>{'label': 'Edman degradation'}</t>
+  </si>
+  <si>
+    <t>{'label': 'disposition', 'prefLabel': 'disposition'}</t>
+  </si>
+  <si>
+    <t>{'label': 'peptide'}</t>
+  </si>
+  <si>
+    <t>['A generically dependent continuant that is about some thing. [IAO]']</t>
+  </si>
+  <si>
+    <t>['p is a process if p is an occurrent that has temporal proper parts and for some time t, p specifically depends on some material entity at t. [BFO]', locstr("Process, i.e., a physical entity with a temporal evolution that 'has a meaning for the ontologist'", 'en')]</t>
+  </si>
+  <si>
+    <t>['B is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up. [BFO]']</t>
+  </si>
+  <si>
+    <t>['Any constitutionally or isotopically distinct atom, molecule, ion, ion pair, radical, radical ion, complex, conformer etc., identifiable as a separately distinguishable entity. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['A one-carbon compound with formula CO2 in which the carbon is attached to each oxygen atom by a double bond. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['An azane that consists of a single nitrogen atom covelently bonded to three hydrogen atoms. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['A processual entity that realizes a plan which is the concretization of a plan specification. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A directive information entity that describes an intended process endpoint. When part of a plan specification the concretization is realized in a planned process in which the bearer tries to effect the world so that the process endpoint is achieved. [IAO]']</t>
   </si>
 </sst>
 </file>
@@ -474,13 +534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,209 +553,328 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -724,6 +903,14 @@
     <hyperlink ref="D12" r:id="rId22"/>
     <hyperlink ref="B13" r:id="rId23"/>
     <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="B14" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26"/>
+    <hyperlink ref="B15" r:id="rId27"/>
+    <hyperlink ref="D15" r:id="rId28"/>
+    <hyperlink ref="B16" r:id="rId29"/>
+    <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="B17" r:id="rId31"/>
+    <hyperlink ref="D17" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
